--- a/test_data/orange_test_data.xlsx
+++ b/test_data/orange_test_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mine\Company\iFuture\hybrid_framework\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EI_Python_Training\hybrid_framework\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDAA3D4-A4ED-43ED-83B5-B2C98BD8E711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_add_valid_employee" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>User Name</t>
   </si>
@@ -79,19 +80,16 @@
     <t>Expected Error</t>
   </si>
   <si>
-    <t>C:\Mine\Balaji-Profile_2023.pdf</t>
-  </si>
-  <si>
-    <t>C:\Mine\iFuture.txt</t>
-  </si>
-  <si>
     <t>File type not allowed</t>
   </si>
+  <si>
+    <t>C:\Users\153500\OneDrive - Arrow Electronics, Inc\Documents\test.pdf"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,25 +400,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -472,21 +470,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -500,7 +498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -508,13 +506,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -525,7 +523,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -535,50 +533,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
